--- a/exercise1_graph_calc.xlsx
+++ b/exercise1_graph_calc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nc\sakura\dropbox\_発表\240729-0801_神奈川工科大学\授業\補足資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\nc\sakura\dropbox\_発表\240729-0801_神奈川工科大学\授業\補足資料\補足資料Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C225F1D5-C44A-418E-B9FB-896C35EEAF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE201DC-1213-48BC-83F2-3A6C19699DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13155" yWindow="1590" windowWidth="21450" windowHeight="15255" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="1485" windowWidth="20670" windowHeight="18285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="例題１）グラフの描画" sheetId="2" r:id="rId1"/>
@@ -22,9 +22,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'１）描画例'!$B$71:$B$74</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'１）描画例'!$C$71:$C$74</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'１）描画例'!$B$72:$B$75</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'１）描画例'!$C$72:$C$75</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'１）描画例'!$B$71:$B$76</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'１）描画例'!$C$71:$C$74</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'１）描画例'!$C$71:$C$76</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="99">
   <si>
     <t>円グラフ</t>
     <rPh sb="0" eb="1">
@@ -801,62 +801,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>統計が難しいと感じる理由</t>
-    <rPh sb="0" eb="2">
-      <t>トウケイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ムズカ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>専門用語が多い</t>
-    <rPh sb="0" eb="2">
-      <t>センモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウゴ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>苦手意識がある</t>
-    <rPh sb="0" eb="2">
-      <t>ニガテ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イシキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>概念をイメージしづらい</t>
-    <rPh sb="0" eb="2">
-      <t>ガイネン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数式が難しい</t>
-    <rPh sb="0" eb="2">
-      <t>スウシキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ムズカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>グラフは、「統計グラフの挿入」→「ヒストグラム」→「パレート図」</t>
     <rPh sb="6" eb="8">
       <t>トウケイ</t>
@@ -1210,6 +1154,76 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新発売のスナック菓子について改善の余地があると感じること</t>
+    <rPh sb="0" eb="3">
+      <t>シンハツバイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨチ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パッケージの絵柄</t>
+    <rPh sb="6" eb="8">
+      <t>エガラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値段</t>
+    <rPh sb="0" eb="2">
+      <t>ネダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味・食感</t>
+    <rPh sb="0" eb="1">
+      <t>アジ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショッカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カロリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持ち運びやすさ（重さ、形）</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原産地</t>
+    <rPh sb="0" eb="3">
+      <t>ゲンサンチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1276,13 +1290,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1777,6 +1790,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-FC66-4AF2-A37C-AFFBE030C47E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1792,6 +1810,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-FC66-4AF2-A37C-AFFBE030C47E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1807,6 +1830,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-FC66-4AF2-A37C-AFFBE030C47E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1822,6 +1850,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-FC66-4AF2-A37C-AFFBE030C47E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1837,6 +1870,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-FC66-4AF2-A37C-AFFBE030C47E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3350,10 +3388,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7481,7 +7519,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3043237" y="16235362"/>
+              <a:off x="3043237" y="15997237"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7819,7 +7857,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{123C14B9-228B-4B6D-968E-49BF1C05DADA}">
-  <dimension ref="B2:D74"/>
+  <dimension ref="B2:D76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7830,7 +7868,7 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:3">
@@ -8159,12 +8197,12 @@
     </row>
     <row r="70" spans="2:3">
       <c r="B70" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C71">
         <v>15</v>
@@ -8172,26 +8210,42 @@
     </row>
     <row r="72" spans="2:3">
       <c r="B72" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C72">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="B73" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C73">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="B74" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3">
+      <c r="B75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -8202,11 +8256,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L74"/>
+  <dimension ref="B2:L76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -8215,7 +8267,7 @@
   <sheetData>
     <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -8600,51 +8652,67 @@
     </row>
     <row r="70" spans="2:12">
       <c r="B70" t="s">
+        <v>92</v>
+      </c>
+      <c r="L70" t="s">
         <v>67</v>
-      </c>
-      <c r="L70" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="71" spans="2:12">
       <c r="B71" t="s">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="C71">
         <v>15</v>
       </c>
       <c r="L71" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="2:12">
       <c r="B72" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C72">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="L72" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="2:12">
       <c r="B73" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73">
+        <v>55</v>
+      </c>
+      <c r="L73" t="s">
         <v>70</v>
-      </c>
-      <c r="C73">
-        <v>12</v>
-      </c>
-      <c r="L73" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="74" spans="2:12">
       <c r="B74" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -8675,7 +8743,7 @@
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:2">
@@ -8869,7 +8937,7 @@
     </row>
     <row r="3" spans="2:12">
       <c r="B3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:12">
@@ -9185,18 +9253,18 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>94</v>
+      <c r="C3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -9206,10 +9274,10 @@
     </row>
     <row r="7" spans="2:7">
       <c r="C7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -9219,7 +9287,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -9230,7 +9298,7 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G9" s="4"/>
     </row>
@@ -9241,7 +9309,7 @@
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G10" s="4"/>
     </row>
@@ -9252,7 +9320,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -9270,7 +9338,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G13" s="4"/>
     </row>
@@ -9281,7 +9349,7 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G14" s="4"/>
     </row>
@@ -9292,7 +9360,7 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G15" s="4"/>
     </row>
@@ -9303,7 +9371,7 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G16" s="4"/>
     </row>
@@ -9314,7 +9382,7 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G17" s="4"/>
     </row>
@@ -9332,7 +9400,7 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G19" s="4"/>
     </row>
@@ -9343,7 +9411,7 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -9354,7 +9422,7 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -9365,7 +9433,7 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -9508,18 +9576,18 @@
   <sheetData>
     <row r="2" spans="2:7">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
-        <v>94</v>
+      <c r="C3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -9529,10 +9597,10 @@
     </row>
     <row r="7" spans="2:7">
       <c r="C7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -9548,7 +9616,7 @@
         <v>105.19066406249988</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G8" s="4">
         <f>SUM(B8:B39)</f>
@@ -9568,7 +9636,7 @@
         <v>22.503164062500055</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G9" s="4">
         <f>COUNTA(B8:B39)</f>
@@ -9588,7 +9656,7 @@
         <v>3.0844140624999801</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G10" s="4">
         <f>G8/G9</f>
@@ -9608,7 +9676,7 @@
         <v>85.678164062499889</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G11" s="4">
         <f>AVERAGE(B8:B39)</f>
@@ -9641,7 +9709,7 @@
         <v>115.42816406250012</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G13" s="4">
         <f>SUM(D8:D39)</f>
@@ -9661,7 +9729,7 @@
         <v>52.653164062499918</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G14" s="4">
         <f>G13/G9</f>
@@ -9681,7 +9749,7 @@
         <v>6.5344140625000291</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G15" s="4">
         <f>_xlfn.VAR.P(B8:B39)</f>
@@ -9701,7 +9769,7 @@
         <v>18.115664062499953</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G16" s="4">
         <f>G13/(G9-1)</f>
@@ -9721,7 +9789,7 @@
         <v>10.521914062500036</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G17" s="4">
         <f>_xlfn.VAR.S(B8:B39)</f>
@@ -9754,7 +9822,7 @@
         <v>7.5281640625000312</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G19" s="4">
         <f>SQRT(G14)</f>
@@ -9774,7 +9842,7 @@
         <v>6.5664062499997081E-2</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G20" s="4">
         <f>_xlfn.STDEV.P(B8:B39)</f>
@@ -9794,7 +9862,7 @@
         <v>45.478164062500078</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G21" s="4">
         <f>SQRT(G16)</f>
@@ -9814,7 +9882,7 @@
         <v>18.115664062499953</v>
       </c>
       <c r="F22" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G22" s="4">
         <f>_xlfn.STDEV.S(B8:B39)</f>
